--- a/exercises/ex130.MF_well_new_test2.xlsx
+++ b/exercises/ex130.MF_well_new_test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C42E8332-B5D7-44E6-9814-64A234C90EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D130C13-7F8E-4A19-A9E3-013FEE337A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="482" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Упражнения по работе с макросами Unifloc VBA</t>
   </si>
@@ -789,6 +789,9 @@
   <si>
     <t>c_fric</t>
   </si>
+  <si>
+    <t>Plin</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,7 +1124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ptub</c:v>
+                  <c:v>p_tub_atma</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1133,67 +1136,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.5953407462525035</c:v>
+                  <c:v>11.03949867482677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7304306138822501</c:v>
+                  <c:v>19.607721733193344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.492543401097516</c:v>
+                  <c:v>30.641913079394072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.017552849119649</c:v>
+                  <c:v>43.070401831679234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.095251230618125</c:v>
+                  <c:v>54.366123787246174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.908996811611583</c:v>
+                  <c:v>66.321251440687746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.092645870256494</c:v>
+                  <c:v>78.918624674250651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.076481159417924</c:v>
+                  <c:v>91.754696112382561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.237666975335351</c:v>
+                  <c:v>104.31757208412628</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.083108922140937</c:v>
+                  <c:v>116.41968668992494</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.314000468936463</c:v>
+                  <c:v>127.99104379661267</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.578735915591082</c:v>
+                  <c:v>139.08878608473844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77.689671236736146</c:v>
+                  <c:v>149.71578074892986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.695601510021689</c:v>
+                  <c:v>159.81622750887217</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.531773351804929</c:v>
+                  <c:v>169.45045055864327</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>98.019095817346169</c:v>
+                  <c:v>174.03478617014696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.575645544823828</c:v>
+                  <c:v>178.61912178165065</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101.12191771982613</c:v>
+                  <c:v>102.72836035034992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>107.65039419627895</c:v>
+                  <c:v>111.24171408856847</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115.49677181277004</c:v>
+                  <c:v>117.41786842869509</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>121.37235347486433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,61 +1211,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.5</c:v>
+                  <c:v>166.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375</c:v>
+                  <c:v>333.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>562.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750</c:v>
+                  <c:v>666.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>937.5</c:v>
+                  <c:v>833.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1125</c:v>
+                  <c:v>1166.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1312.5</c:v>
+                  <c:v>1333.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1687.5</c:v>
+                  <c:v>1666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1875</c:v>
+                  <c:v>1833.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2062.5</c:v>
+                  <c:v>2166.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2250</c:v>
+                  <c:v>2333.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2437.5</c:v>
+                  <c:v>2416.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2450</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2500</c:v>
+                  <c:v>2501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2625</c:v>
+                  <c:v>2666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2812.5</c:v>
+                  <c:v>2833.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3000</c:v>
@@ -1311,67 +1314,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>0.87018271834557082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.81460275453607</c:v>
+                  <c:v>1.1217632801755131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.63657213764805</c:v>
+                  <c:v>2.716672222266022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.46604006975788</c:v>
+                  <c:v>5.298123164363389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117.30355820389585</c:v>
+                  <c:v>8.7664275531152125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.14780238763959</c:v>
+                  <c:v>13.076091378680506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.99922126138016</c:v>
+                  <c:v>18.448131292940001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.84802801692892</c:v>
+                  <c:v>25.299850689339731</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.48519212662829</c:v>
+                  <c:v>33.390469132197666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124.64899055359172</c:v>
+                  <c:v>42.187342360524724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126.40324634535358</c:v>
+                  <c:v>51.414022793487732</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128.11279785543729</c:v>
+                  <c:v>60.789818202640618</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129.77916783243643</c:v>
+                  <c:v>70.085211221181027</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131.36891943285306</c:v>
+                  <c:v>79.104677632282943</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132.85035472672507</c:v>
+                  <c:v>87.799505677139393</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.23674422223974</c:v>
+                  <c:v>96.075802520351615</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>135.14697253092618</c:v>
+                  <c:v>102.72836035034992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>135.53133651536047</c:v>
+                  <c:v>104.04756015357881</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.75710714637347</c:v>
+                  <c:v>112.12399498210515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>137.91469842713022</c:v>
+                  <c:v>117.62670721045281</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>139.01293413126569</c:v>
+                  <c:v>121.37235347486433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,64 +1389,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>136.11111111111111</c:v>
+                  <c:v>157.89473684210526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>272.22222222222223</c:v>
+                  <c:v>315.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>408.33333333333337</c:v>
+                  <c:v>473.68421052631578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544.44444444444446</c:v>
+                  <c:v>631.57894736842104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>680.55555555555554</c:v>
+                  <c:v>789.47368421052624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>816.66666666666674</c:v>
+                  <c:v>947.36842105263156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>952.77777777777783</c:v>
+                  <c:v>1105.2631578947369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>1263.1578947368421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1088.8888888888889</c:v>
+                  <c:v>1421.0526315789473</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1225</c:v>
+                  <c:v>1578.9473684210525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1361.1111111111111</c:v>
+                  <c:v>1736.8421052631579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1497.2222222222222</c:v>
+                  <c:v>1894.7368421052631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1633.3333333333335</c:v>
+                  <c:v>2052.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1769.4444444444446</c:v>
+                  <c:v>2210.5263157894738</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1905.5555555555557</c:v>
+                  <c:v>2368.4210526315787</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2000</c:v>
+                  <c:v>2501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2041.6666666666667</c:v>
+                  <c:v>2526.3157894736842</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2177.7777777777778</c:v>
+                  <c:v>2684.2105263157896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2313.8888888888891</c:v>
+                  <c:v>2842.1052631578946</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2450</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,67 +1677,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>25.956622195882879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.875</c:v>
+                  <c:v>27.662830949825711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.75</c:v>
+                  <c:v>29.518853913023975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.625</c:v>
+                  <c:v>31.56634504298794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.5</c:v>
+                  <c:v>33.806054377551646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.375</c:v>
+                  <c:v>36.369431299980931</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>39.390991015074732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.197500000000002</c:v>
+                  <c:v>43.185022196327161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.953749999999999</c:v>
+                  <c:v>47.935974163148451</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.64</c:v>
+                  <c:v>54.011885811741294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.895625000000003</c:v>
+                  <c:v>61.447887042326485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.386250000000004</c:v>
+                  <c:v>68.851778492411299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.844999999999999</c:v>
+                  <c:v>76.224587174831058</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.491875</c:v>
+                  <c:v>83.699280458187232</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.212500000000006</c:v>
+                  <c:v>91.442426729775576</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.548124999999999</c:v>
+                  <c:v>95.556501019631071</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.022500000000008</c:v>
+                  <c:v>99.670575309486551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.92</c:v>
+                  <c:v>92.298796014454339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.498750000000001</c:v>
+                  <c:v>98.04534788933455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86.854687500000011</c:v>
+                  <c:v>104.53866925667907</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,61 +1752,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.5</c:v>
+                  <c:v>166.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375</c:v>
+                  <c:v>333.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>562.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750</c:v>
+                  <c:v>666.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>937.5</c:v>
+                  <c:v>833.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1125</c:v>
+                  <c:v>1166.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1312.5</c:v>
+                  <c:v>1333.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1687.5</c:v>
+                  <c:v>1666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1875</c:v>
+                  <c:v>1833.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2062.5</c:v>
+                  <c:v>2166.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2250</c:v>
+                  <c:v>2333.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2437.5</c:v>
+                  <c:v>2416.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2450</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2500</c:v>
+                  <c:v>2501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2625</c:v>
+                  <c:v>2666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2812.5</c:v>
+                  <c:v>2833.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3000</c:v>
@@ -1855,61 +1858,61 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.875</c:v>
+                  <c:v>21.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.75</c:v>
+                  <c:v>23.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.625</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.5</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.375</c:v>
+                  <c:v>28.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.197500000000002</c:v>
+                  <c:v>31.593333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.953749999999999</c:v>
+                  <c:v>33.143333333333338</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>34.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.895625000000003</c:v>
+                  <c:v>40.92166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.386250000000004</c:v>
+                  <c:v>48.53</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>55.844999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.491875</c:v>
+                  <c:v>62.829999999999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.212500000000006</c:v>
+                  <c:v>69.521666666666647</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.548124999999999</c:v>
+                  <c:v>72.720833333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.022500000000008</c:v>
+                  <c:v>75.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.92</c:v>
+                  <c:v>75.956850000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.498750000000001</c:v>
+                  <c:v>81.987611000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86.854687500000011</c:v>
+                  <c:v>87.204166666666652</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>90</c:v>
@@ -1927,61 +1930,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.5</c:v>
+                  <c:v>166.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375</c:v>
+                  <c:v>333.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>562.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750</c:v>
+                  <c:v>666.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>937.5</c:v>
+                  <c:v>833.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1125</c:v>
+                  <c:v>1166.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1312.5</c:v>
+                  <c:v>1333.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1687.5</c:v>
+                  <c:v>1666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1875</c:v>
+                  <c:v>1833.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2062.5</c:v>
+                  <c:v>2166.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2250</c:v>
+                  <c:v>2333.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2437.5</c:v>
+                  <c:v>2416.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2450</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2500</c:v>
+                  <c:v>2501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2625</c:v>
+                  <c:v>2666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2812.5</c:v>
+                  <c:v>2833.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3000</c:v>
@@ -2278,67 +2281,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.1550195212855269</c:v>
+                  <c:v>0.48544069529600076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18655220167431569</c:v>
+                  <c:v>0.66513463183749533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21865991075374233</c:v>
+                  <c:v>0.82937909889665662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25065032387738839</c:v>
+                  <c:v>0.82196702779913866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27636517442631814</c:v>
+                  <c:v>0.79983180043104096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30903270856324916</c:v>
+                  <c:v>0.84729547540194716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34178776108448772</c:v>
+                  <c:v>0.90843481442033824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45886352486388038</c:v>
+                  <c:v>0.97813532583928375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52289334364617912</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58441435347180271</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63957393789590544</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68068984472039307</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.71278070677412497</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73670717333517399</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75494565805759628</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.76717553557339802</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.77543949992318006</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96563236512262063</c:v>
+                  <c:v>0.99988724512574856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99959265157086219</c:v>
+                  <c:v>0.99969226440047121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99979580149621583</c:v>
+                  <c:v>0.99934772035092356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99996128755088243</c:v>
+                  <c:v>0.99923407777421913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,7 +2758,7 @@
                   <c:v>43.630108867854346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.304333337999893</c:v>
+                  <c:v>41.312037696227115</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>39.05012253615353</c:v>
@@ -7978,7 +7981,7 @@
       <definedName name="getUFVersion"/>
       <definedName name="GL_encode_string"/>
       <definedName name="PVT_encode_string"/>
-      <definedName name="well_plin_pwf_atma"/>
+      <definedName name="well_pwf_plin_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -8289,7 +8292,7 @@
   <dimension ref="A1:AZ147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8528,9 +8531,7 @@
       <c r="F18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="3">
-        <v>5000</v>
-      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:41" ht="18" x14ac:dyDescent="0.35">
@@ -8559,8 +8560,12 @@
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:41" ht="18" x14ac:dyDescent="0.35">
@@ -8577,7 +8582,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>29</v>
@@ -8700,7 +8705,7 @@
       </c>
       <c r="C30" s="24" t="str">
         <f>[1]!GL_encode_string(qgas_inj_,pgas_inj_,d_gl_,M35:M38,N35:N38,O35:O38)</f>
-        <v>GLV:1;q_gas_inj_sm3day:5000.00000;p_gas_inj_atma:110.00000;d_gas_inj_mm:2.00000;GLV:3;H_glv_m1:1000.000;d_glv_mm1:0.000;p_glv_atma1:25.000;H_glv_m2:2000.000;d_glv_mm2:3.000;p_glv_atma2:55.000;H_glv_m3:2450.000;d_glv_mm3:2.000;p_glv_atma3:60.000;</v>
+        <v>GLV:1;q_gas_inj_sm3day:0.00000;p_gas_inj_atma:110.00000;d_gas_inj_mm:4.00000;GLV:3;H_glv_m1:1000.000;d_glv_mm1:0.000;p_glv_atma1:25.000;H_glv_m2:2000.000;d_glv_mm2:3.000;p_glv_atma2:55.000;H_glv_m3:2450.000;d_glv_mm3:2.000;p_glv_atma3:60.000;</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -8726,7 +8731,7 @@
       </c>
       <c r="C31" s="25" t="str">
         <f>IF(ALsel,ESP_,GLV_)</f>
-        <v>GLV:1;q_gas_inj_sm3day:5000.00000;p_gas_inj_atma:110.00000;d_gas_inj_mm:2.00000;GLV:3;H_glv_m1:1000.000;d_glv_mm1:0.000;p_glv_atma1:25.000;H_glv_m2:2000.000;d_glv_mm2:3.000;p_glv_atma2:55.000;H_glv_m3:2450.000;d_glv_mm3:2.000;p_glv_atma3:60.000;</v>
+        <v>ESP_ID:737.00000;HeadNom_m:1000.00000;ESPfreq_Hz:45.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;t_intake_C:85.00000;t_dis_C:85.00000;KsepGS_fr:0.50000;Ksep_manual_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_h_mes_m:0.00000;ESP_gas_degradation_type:0;c_calibr_head:1.00000;c_calibr_rate:1.00000;c_calibr_power:1.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -8777,7 +8782,7 @@
         <v>53</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
         <v>64</v>
@@ -8803,7 +8808,7 @@
         <v>48</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>54</v>
@@ -9187,26 +9192,26 @@
       <c r="K49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="27">
-        <f t="array" ref="N49:AZ75">[1]!well_plin_pwf_atma(qliq_,fw_,C24,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C71,J44:K51,H44:I51,E44:F51,hcor,tempm,C26,c_grav,c_fric,,Qinj_,,21)</f>
-        <v>0</v>
+        <f t="array" ref="N49:AZ75">[1]!well_pwf_plin_atma(qliq_,fw_,C22,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C71,J44:K51,H44:I51,E44:F51,hcor,tempm,C26,c_grav,c_fric,,Qinj_,,21)</f>
+        <v>121.37235347486433</v>
       </c>
       <c r="O49" s="27">
-        <v>0</v>
+        <v>9.9560322521508979</v>
       </c>
       <c r="P49" s="27">
-        <v>6.5953407462525035</v>
+        <v>11.03949867482677</v>
       </c>
       <c r="Q49" s="27">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="R49" s="27">
-        <v>0</v>
+        <v>178.61912178165065</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>102.72836035034992</v>
       </c>
       <c r="T49">
-        <v>120</v>
+        <v>121.37235347486433</v>
       </c>
       <c r="U49">
         <v>45</v>
@@ -9215,22 +9220,22 @@
         <v>12</v>
       </c>
       <c r="W49" s="20">
-        <v>8168</v>
+        <v>3168</v>
       </c>
       <c r="X49" s="20">
-        <v>20</v>
+        <v>25.956622195882879</v>
       </c>
       <c r="Y49" s="20">
-        <v>20</v>
+        <v>25.956622195882879</v>
       </c>
       <c r="Z49" s="20">
         <v>20</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>99.670575309486551</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>92.298796014454339</v>
       </c>
       <c r="AC49">
         <v>120</v>
@@ -9325,7 +9330,7 @@
       <c r="K50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" t="str">
-        <v>p_line_atma</v>
+        <v>p_wf_atma</v>
       </c>
       <c r="O50" t="str">
         <v>p_line_atma</v>
@@ -9465,64 +9470,64 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2456.5144866937967</v>
       </c>
       <c r="P51">
-        <v>5000</v>
-      </c>
-      <c r="Q51">
-        <v>110</v>
-      </c>
-      <c r="R51">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" t="str">
+        <v>ВНН5-125 Новомет</v>
       </c>
       <c r="S51">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U51">
-        <v>123.48519212662829</v>
+        <v>1029.5756475156898</v>
       </c>
       <c r="V51">
-        <v>31.092645870256494</v>
+        <v>10.025643225657507</v>
       </c>
       <c r="W51" s="26">
-        <v>0</v>
+        <v>0.52094770349159436</v>
       </c>
       <c r="X51" s="26">
-        <v>30</v>
+        <v>0.35089717028991513</v>
       </c>
       <c r="Y51" s="26">
-        <v>3</v>
+        <v>0.26362637130254202</v>
       </c>
       <c r="Z51" s="20">
-        <v>135.14697253092618</v>
+        <v>17523.920499939552</v>
       </c>
       <c r="AA51">
-        <v>77.689671236736146</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.89650972793398753</v>
       </c>
       <c r="AC51">
-        <v>55.844999999999999</v>
+        <v>0.79301945586797495</v>
       </c>
       <c r="AD51">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AE51">
-        <v>139.01293413126569</v>
+        <v>1</v>
       </c>
       <c r="AF51">
-        <v>98.575645544823828</v>
+        <v>1</v>
       </c>
       <c r="AG51">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="AH51">
-        <v>74.022500000000008</v>
+        <v>0</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -9602,64 +9607,64 @@
         <v>0</v>
       </c>
       <c r="O52" s="10" t="str">
-        <v>GLV.count</v>
+        <v>hdyn_m</v>
       </c>
       <c r="P52" s="10" t="str">
-        <v>q_gas_inj_sm3day</v>
+        <v>pcas_hdyn_atma</v>
       </c>
       <c r="Q52" s="10" t="str">
-        <v>p_gas_inj_atma</v>
+        <v>correct_hdyn</v>
       </c>
       <c r="R52" s="10" t="str">
-        <v>d_gas_inj_mm</v>
+        <v>ESP.name</v>
       </c>
       <c r="S52" s="10" t="str">
-        <v>p_gas_cas_inj_atma</v>
+        <v>ESP.freq_Hz</v>
       </c>
       <c r="T52" s="10" t="str">
-        <v>glv1:d_mm</v>
+        <v>ESP.U_V</v>
       </c>
       <c r="U52" s="10" t="str">
-        <v>glv1:p_in_atma</v>
+        <v>ESP.Utr_V</v>
       </c>
       <c r="V52" s="10" t="str">
-        <v>glv1:p_out_atma</v>
+        <v>ESP.I_A</v>
       </c>
       <c r="W52" s="28" t="str">
-        <v>glv1:q_gas_scm3day</v>
+        <v>ESP.load_fr</v>
       </c>
       <c r="X52" s="28" t="str">
-        <v>glv1:t_C</v>
+        <v>ESPpump.eff_d</v>
       </c>
       <c r="Y52" s="28" t="str">
-        <v>glv2:d_mm</v>
+        <v>ESPsys.eff_d</v>
       </c>
       <c r="Z52" s="28" t="str">
-        <v>glv2:p_in_atma</v>
+        <v>ESP.power_CS</v>
       </c>
       <c r="AA52" s="10" t="str">
-        <v>glv2:p_out_atma</v>
+        <v>ESP.fact_power_CS</v>
       </c>
       <c r="AB52" s="10" t="str">
-        <v>glv2:q_gas_scm3day</v>
+        <v>ESP.ksep_total_fr</v>
       </c>
       <c r="AC52" s="10" t="str">
-        <v>glv2:t_C</v>
+        <v>ESP.ksep_nat_fr</v>
       </c>
       <c r="AD52" s="10" t="str">
-        <v>glv3:d_mm</v>
+        <v>ESP.ksep_gassep_fr</v>
       </c>
       <c r="AE52" s="10" t="str">
-        <v>glv3:p_in_atma</v>
+        <v>ESP.c_calibr_head</v>
       </c>
       <c r="AF52" s="10" t="str">
-        <v>glv3:p_out_atma</v>
+        <v>ESP.c_calibr_rate</v>
       </c>
       <c r="AG52" s="10" t="str">
-        <v>glv3:q_gas_scm3day</v>
-      </c>
-      <c r="AH52" t="str">
-        <v>glv3:t_C</v>
+        <v>ESP.c_calibr_power</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -9876,10 +9881,10 @@
         <v>num</v>
       </c>
       <c r="O54" t="str">
-        <v>hmes ptub</v>
+        <v>hmes_m</v>
       </c>
       <c r="P54" t="str">
-        <v>ptub</v>
+        <v>p_tub_atma</v>
       </c>
       <c r="Q54" t="str">
         <v>hmes_m</v>
@@ -9900,10 +9905,10 @@
         <v>c_Theta</v>
       </c>
       <c r="W54" s="20" t="str">
-        <v>hmes ttub</v>
+        <v>hmes_m</v>
       </c>
       <c r="X54" s="20" t="str">
-        <v>ttub</v>
+        <v>t_tub_C</v>
       </c>
       <c r="Y54" s="20" t="str">
         <v>hmes_m</v>
@@ -9912,10 +9917,10 @@
         <v>Hl_tub</v>
       </c>
       <c r="AA54" t="str">
-        <v>hmes pcas</v>
+        <v>hmes_m</v>
       </c>
       <c r="AB54" t="str">
-        <v>pcas</v>
+        <v>p_cas_atma</v>
       </c>
       <c r="AC54" t="str">
         <v>hmes_m</v>
@@ -9924,16 +9929,16 @@
         <v>Hl_cas</v>
       </c>
       <c r="AE54" t="str">
-        <v>hmes tamb</v>
+        <v>hmes_m</v>
       </c>
       <c r="AF54" t="str">
-        <v>tamb</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
+        <v>t_amb_C</v>
+      </c>
+      <c r="AG54" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="AH54" t="str">
+        <v>p_cas_atma</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -10016,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="31">
-        <v>6.5953407462525035</v>
+        <v>11.03949867482677</v>
       </c>
       <c r="Q55" s="31">
         <v>0</v>
@@ -10040,25 +10045,25 @@
         <v>0</v>
       </c>
       <c r="X55" s="31">
-        <v>20</v>
+        <v>25.956622195882879</v>
       </c>
       <c r="Y55" s="31">
         <v>0</v>
       </c>
       <c r="Z55" s="32">
-        <v>0.1550195212855269</v>
+        <v>0.48544069529600076</v>
       </c>
       <c r="AA55" s="31">
         <v>0</v>
       </c>
       <c r="AB55" s="31">
-        <v>110</v>
+        <v>0.87018271834557082</v>
       </c>
       <c r="AC55" s="31">
-        <v>0</v>
+        <v>2501</v>
       </c>
       <c r="AD55" s="32">
-        <v>0</v>
+        <v>0.99995141172466495</v>
       </c>
       <c r="AE55" s="31">
         <v>0</v>
@@ -10070,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI55" s="31">
         <v>0</v>
@@ -10150,10 +10155,10 @@
         <v>2</v>
       </c>
       <c r="O56" s="31">
-        <v>187.5</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="P56" s="31">
-        <v>9.7304306138822501</v>
+        <v>19.607721733193344</v>
       </c>
       <c r="Q56" s="31">
         <v>150</v>
@@ -10174,40 +10179,40 @@
         <v>90</v>
       </c>
       <c r="W56" s="31">
-        <v>187.5</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="X56" s="31">
-        <v>21.875</v>
+        <v>27.662830949825711</v>
       </c>
       <c r="Y56" s="31">
         <v>150</v>
       </c>
       <c r="Z56" s="32">
-        <v>0.18655220167431569</v>
+        <v>0.66513463183749533</v>
       </c>
       <c r="AA56" s="31">
-        <v>136.11111111111111</v>
+        <v>157.89473684210526</v>
       </c>
       <c r="AB56" s="31">
-        <v>111.81460275453607</v>
+        <v>1.1217632801755131</v>
       </c>
       <c r="AC56" s="31">
-        <v>122.5</v>
+        <v>2525.9499999999998</v>
       </c>
       <c r="AD56" s="32">
-        <v>0</v>
+        <v>0.99991873914011464</v>
       </c>
       <c r="AE56" s="31">
-        <v>187.5</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="AF56" s="31">
-        <v>21.875</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="AG56" s="31">
-        <v>0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="AH56" s="31">
-        <v>0</v>
+        <v>81.478604352392097</v>
       </c>
       <c r="AI56" s="31">
         <v>0</v>
@@ -10287,10 +10292,10 @@
         <v>3</v>
       </c>
       <c r="O57" s="31">
-        <v>375</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="P57" s="31">
-        <v>13.492543401097516</v>
+        <v>30.641913079394072</v>
       </c>
       <c r="Q57" s="31">
         <v>300</v>
@@ -10311,40 +10316,40 @@
         <v>90</v>
       </c>
       <c r="W57" s="31">
-        <v>375</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="X57" s="31">
-        <v>23.75</v>
+        <v>29.518853913023975</v>
       </c>
       <c r="Y57" s="31">
         <v>300</v>
       </c>
       <c r="Z57" s="32">
-        <v>0.21865991075374233</v>
+        <v>0.82937909889665662</v>
       </c>
       <c r="AA57" s="31">
-        <v>272.22222222222223</v>
+        <v>315.78947368421052</v>
       </c>
       <c r="AB57" s="31">
-        <v>113.63657213764805</v>
+        <v>2.716672222266022</v>
       </c>
       <c r="AC57" s="31">
-        <v>245</v>
+        <v>2550.9</v>
       </c>
       <c r="AD57" s="32">
-        <v>0</v>
+        <v>0.99988606655556433</v>
       </c>
       <c r="AE57" s="31">
-        <v>375</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AF57" s="31">
-        <v>23.75</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="AG57" s="31">
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AH57" s="31">
-        <v>0</v>
+        <v>82.976654045359936</v>
       </c>
       <c r="AI57" s="31">
         <v>0</v>
@@ -10424,10 +10429,10 @@
         <v>4</v>
       </c>
       <c r="O58" s="31">
-        <v>562.5</v>
+        <v>500</v>
       </c>
       <c r="P58" s="31">
-        <v>18.017552849119649</v>
+        <v>43.070401831679234</v>
       </c>
       <c r="Q58" s="31">
         <v>450</v>
@@ -10448,40 +10453,40 @@
         <v>90</v>
       </c>
       <c r="W58" s="31">
-        <v>562.5</v>
+        <v>500</v>
       </c>
       <c r="X58" s="31">
-        <v>25.625</v>
+        <v>31.56634504298794</v>
       </c>
       <c r="Y58" s="31">
         <v>450</v>
       </c>
       <c r="Z58" s="32">
-        <v>0.25065032387738839</v>
+        <v>0.82196702779913866</v>
       </c>
       <c r="AA58" s="31">
-        <v>408.33333333333337</v>
+        <v>473.68421052631578</v>
       </c>
       <c r="AB58" s="31">
-        <v>115.46604006975788</v>
+        <v>5.298123164363389</v>
       </c>
       <c r="AC58" s="31">
-        <v>367.5</v>
+        <v>2575.85</v>
       </c>
       <c r="AD58" s="32">
-        <v>0</v>
+        <v>0.99985339397101403</v>
       </c>
       <c r="AE58" s="31">
-        <v>562.5</v>
+        <v>500</v>
       </c>
       <c r="AF58" s="31">
-        <v>25.625</v>
+        <v>25</v>
       </c>
       <c r="AG58" s="31">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AH58" s="31">
-        <v>0</v>
+        <v>84.492370746157562</v>
       </c>
       <c r="AI58" s="31">
         <v>0</v>
@@ -10561,10 +10566,10 @@
         <v>5</v>
       </c>
       <c r="O59" s="31">
-        <v>750</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="P59" s="31">
-        <v>23.095251230618125</v>
+        <v>54.366123787246174</v>
       </c>
       <c r="Q59" s="31">
         <v>600</v>
@@ -10585,40 +10590,40 @@
         <v>90</v>
       </c>
       <c r="W59" s="31">
-        <v>750</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="X59" s="31">
-        <v>27.5</v>
+        <v>33.806054377551646</v>
       </c>
       <c r="Y59" s="31">
         <v>600</v>
       </c>
       <c r="Z59" s="32">
-        <v>0.27636517442631814</v>
+        <v>0.79983180043104096</v>
       </c>
       <c r="AA59" s="31">
-        <v>544.44444444444446</v>
+        <v>631.57894736842104</v>
       </c>
       <c r="AB59" s="31">
-        <v>117.30355820389585</v>
+        <v>8.7664275531152125</v>
       </c>
       <c r="AC59" s="31">
-        <v>490</v>
+        <v>2600.8000000000002</v>
       </c>
       <c r="AD59" s="32">
-        <v>0</v>
+        <v>0.99982072138646372</v>
       </c>
       <c r="AE59" s="31">
-        <v>750</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="AF59" s="31">
-        <v>27.5</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="AG59" s="31">
-        <v>0</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="AH59" s="31">
-        <v>0</v>
+        <v>86.026238083591679</v>
       </c>
       <c r="AI59" s="31">
         <v>0</v>
@@ -10698,10 +10703,10 @@
         <v>6</v>
       </c>
       <c r="O60" s="31">
-        <v>937.5</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="P60" s="31">
-        <v>28.908996811611583</v>
+        <v>66.321251440687746</v>
       </c>
       <c r="Q60" s="31">
         <v>750</v>
@@ -10722,40 +10727,40 @@
         <v>90</v>
       </c>
       <c r="W60" s="31">
-        <v>937.5</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="X60" s="31">
-        <v>29.375</v>
+        <v>36.369431299980931</v>
       </c>
       <c r="Y60" s="31">
         <v>750</v>
       </c>
       <c r="Z60" s="32">
-        <v>0.30903270856324916</v>
+        <v>0.84729547540194716</v>
       </c>
       <c r="AA60" s="31">
-        <v>680.55555555555554</v>
+        <v>789.47368421052624</v>
       </c>
       <c r="AB60" s="31">
-        <v>119.14780238763959</v>
+        <v>13.076091378680506</v>
       </c>
       <c r="AC60" s="31">
-        <v>612.5</v>
+        <v>2625.75</v>
       </c>
       <c r="AD60" s="32">
-        <v>0</v>
+        <v>0.99978841071160163</v>
       </c>
       <c r="AE60" s="31">
-        <v>937.5</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="AF60" s="31">
-        <v>29.375</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="AG60" s="31">
-        <v>0</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="AH60" s="31">
-        <v>0</v>
+        <v>87.575139670580569</v>
       </c>
       <c r="AI60" s="31">
         <v>0</v>
@@ -10838,7 +10843,7 @@
         <v>1000</v>
       </c>
       <c r="P61" s="31">
-        <v>31.092645870256494</v>
+        <v>78.918624674250651</v>
       </c>
       <c r="Q61" s="31">
         <v>900</v>
@@ -10862,25 +10867,25 @@
         <v>1000</v>
       </c>
       <c r="X61" s="31">
-        <v>30</v>
+        <v>39.390991015074732</v>
       </c>
       <c r="Y61" s="31">
         <v>900</v>
       </c>
       <c r="Z61" s="32">
-        <v>0.34178776108448772</v>
+        <v>0.90843481442033824</v>
       </c>
       <c r="AA61" s="31">
-        <v>816.66666666666674</v>
+        <v>947.36842105263156</v>
       </c>
       <c r="AB61" s="31">
-        <v>120.99922126138016</v>
+        <v>18.448131292940001</v>
       </c>
       <c r="AC61" s="31">
-        <v>735</v>
+        <v>2650.7</v>
       </c>
       <c r="AD61" s="32">
-        <v>0</v>
+        <v>0.99975610296126216</v>
       </c>
       <c r="AE61" s="31">
         <v>1000</v>
@@ -10889,10 +10894,10 @@
         <v>30</v>
       </c>
       <c r="AG61" s="31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH61" s="31">
-        <v>0</v>
+        <v>89.125772454100016</v>
       </c>
       <c r="AI61" s="31">
         <v>0</v>
@@ -10972,10 +10977,10 @@
         <v>8</v>
       </c>
       <c r="O62" s="31">
-        <v>1125</v>
+        <v>1166.6666666666665</v>
       </c>
       <c r="P62" s="31">
-        <v>36.076481159417924</v>
+        <v>91.754696112382561</v>
       </c>
       <c r="Q62" s="31">
         <v>1050</v>
@@ -10996,40 +11001,40 @@
         <v>72.772461476460705</v>
       </c>
       <c r="W62" s="31">
-        <v>1125</v>
+        <v>1166.6666666666665</v>
       </c>
       <c r="X62" s="31">
-        <v>31.197500000000002</v>
+        <v>43.185022196327161</v>
       </c>
       <c r="Y62" s="31">
         <v>1050</v>
       </c>
       <c r="Z62" s="32">
-        <v>0.45886352486388038</v>
+        <v>0.97813532583928375</v>
       </c>
       <c r="AA62" s="31">
-        <v>952.77777777777783</v>
+        <v>1105.2631578947369</v>
       </c>
       <c r="AB62" s="31">
-        <v>122.84802801692892</v>
+        <v>25.299850689339731</v>
       </c>
       <c r="AC62" s="31">
-        <v>857.5</v>
+        <v>2675.65</v>
       </c>
       <c r="AD62" s="32">
-        <v>0</v>
+        <v>0.99972379521092281</v>
       </c>
       <c r="AE62" s="31">
-        <v>1125</v>
+        <v>1166.6666666666665</v>
       </c>
       <c r="AF62" s="31">
-        <v>31.197500000000002</v>
+        <v>31.593333333333334</v>
       </c>
       <c r="AG62" s="31">
-        <v>0</v>
+        <v>1166.6666666666665</v>
       </c>
       <c r="AH62" s="31">
-        <v>0</v>
+        <v>90.623478740369663</v>
       </c>
       <c r="AI62" s="31">
         <v>0</v>
@@ -11109,10 +11114,10 @@
         <v>9</v>
       </c>
       <c r="O63" s="31">
-        <v>1312.5</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="P63" s="31">
-        <v>44.237666975335351</v>
+        <v>104.31757208412628</v>
       </c>
       <c r="Q63" s="31">
         <v>1200</v>
@@ -11133,40 +11138,40 @@
         <v>68.434814984757395</v>
       </c>
       <c r="W63" s="31">
-        <v>1312.5</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="X63" s="31">
-        <v>32.953749999999999</v>
+        <v>47.935974163148451</v>
       </c>
       <c r="Y63" s="31">
         <v>1200</v>
       </c>
       <c r="Z63" s="32">
-        <v>0.52289334364617912</v>
+        <v>1</v>
       </c>
       <c r="AA63" s="31">
-        <v>1000</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="AB63" s="31">
-        <v>123.48519212662829</v>
+        <v>33.390469132197666</v>
       </c>
       <c r="AC63" s="31">
-        <v>980</v>
+        <v>2700.6</v>
       </c>
       <c r="AD63" s="32">
-        <v>0</v>
+        <v>0.99969148746058334</v>
       </c>
       <c r="AE63" s="31">
-        <v>1312.5</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="AF63" s="31">
-        <v>32.953749999999999</v>
+        <v>33.143333333333338</v>
       </c>
       <c r="AG63" s="31">
-        <v>0</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="AH63" s="31">
-        <v>0</v>
+        <v>92.086496128892321</v>
       </c>
       <c r="AI63" s="31">
         <v>0</v>
@@ -11243,7 +11248,7 @@
         <v>1500</v>
       </c>
       <c r="P64" s="31">
-        <v>53.083108922140937</v>
+        <v>116.41968668992494</v>
       </c>
       <c r="Q64" s="31">
         <v>1350</v>
@@ -11267,25 +11272,25 @@
         <v>1500</v>
       </c>
       <c r="X64" s="31">
-        <v>34.64</v>
+        <v>54.011885811741294</v>
       </c>
       <c r="Y64" s="31">
         <v>1350</v>
       </c>
       <c r="Z64" s="32">
-        <v>0.58441435347180271</v>
+        <v>1</v>
       </c>
       <c r="AA64" s="31">
-        <v>1088.8888888888889</v>
+        <v>1421.0526315789473</v>
       </c>
       <c r="AB64" s="31">
-        <v>124.64899055359172</v>
+        <v>42.187342360524724</v>
       </c>
       <c r="AC64" s="31">
-        <v>1102.5</v>
+        <v>2725.55</v>
       </c>
       <c r="AD64" s="32">
-        <v>0</v>
+        <v>0.99960922338389668</v>
       </c>
       <c r="AE64" s="31">
         <v>1500</v>
@@ -11294,10 +11299,10 @@
         <v>34.64</v>
       </c>
       <c r="AG64" s="31">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AH64" s="31">
-        <v>0</v>
+        <v>93.508520048363394</v>
       </c>
       <c r="AI64" s="31">
         <v>0</v>
@@ -11363,10 +11368,10 @@
         <v>11</v>
       </c>
       <c r="O65" s="31">
-        <v>1687.5</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="P65" s="31">
-        <v>62.314000468936463</v>
+        <v>127.99104379661267</v>
       </c>
       <c r="Q65" s="31">
         <v>1500</v>
@@ -11387,40 +11392,40 @@
         <v>60.45863949985727</v>
       </c>
       <c r="W65" s="31">
-        <v>1687.5</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="X65" s="31">
-        <v>41.895625000000003</v>
+        <v>61.447887042326485</v>
       </c>
       <c r="Y65" s="31">
         <v>1500</v>
       </c>
       <c r="Z65" s="32">
-        <v>0.63957393789590544</v>
+        <v>1</v>
       </c>
       <c r="AA65" s="31">
-        <v>1225</v>
+        <v>1578.9473684210525</v>
       </c>
       <c r="AB65" s="31">
-        <v>126.40324634535358</v>
+        <v>51.414022793487732</v>
       </c>
       <c r="AC65" s="31">
-        <v>1225</v>
+        <v>2750.5</v>
       </c>
       <c r="AD65" s="32">
-        <v>0</v>
+        <v>0.99952614535484596</v>
       </c>
       <c r="AE65" s="31">
-        <v>1687.5</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="AF65" s="31">
-        <v>41.895625000000003</v>
+        <v>40.92166666666666</v>
       </c>
       <c r="AG65" s="31">
-        <v>0</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="AH65" s="31">
-        <v>0</v>
+        <v>94.88107687148478</v>
       </c>
       <c r="AI65" s="31">
         <v>0</v>
@@ -11486,10 +11491,10 @@
         <v>12</v>
       </c>
       <c r="O66" s="31">
-        <v>1875</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="P66" s="31">
-        <v>71.578735915591082</v>
+        <v>139.08878608473844</v>
       </c>
       <c r="Q66" s="31">
         <v>1650</v>
@@ -11510,40 +11515,40 @@
         <v>57.155203693041116</v>
       </c>
       <c r="W66" s="31">
-        <v>1875</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="X66" s="31">
-        <v>50.386250000000004</v>
+        <v>68.851778492411299</v>
       </c>
       <c r="Y66" s="31">
         <v>1650</v>
       </c>
       <c r="Z66" s="32">
-        <v>0.68068984472039307</v>
+        <v>1</v>
       </c>
       <c r="AA66" s="31">
-        <v>1361.1111111111111</v>
+        <v>1736.8421052631579</v>
       </c>
       <c r="AB66" s="31">
-        <v>128.11279785543729</v>
+        <v>60.789818202640618</v>
       </c>
       <c r="AC66" s="31">
-        <v>1347.5</v>
+        <v>2775.45</v>
       </c>
       <c r="AD66" s="32">
-        <v>0</v>
+        <v>0.99944306732579524</v>
       </c>
       <c r="AE66" s="31">
-        <v>1875</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="AF66" s="31">
-        <v>50.386250000000004</v>
+        <v>48.53</v>
       </c>
       <c r="AG66" s="31">
-        <v>0</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="AH66" s="31">
-        <v>0</v>
+        <v>96.198381397548474</v>
       </c>
       <c r="AI66" s="31">
         <v>0</v>
@@ -11609,7 +11614,7 @@
         <v>2000</v>
       </c>
       <c r="P67" s="31">
-        <v>77.689671236736146</v>
+        <v>149.71578074892986</v>
       </c>
       <c r="Q67" s="31">
         <v>1800</v>
@@ -11633,25 +11638,25 @@
         <v>2000</v>
       </c>
       <c r="X67" s="31">
-        <v>55.844999999999999</v>
+        <v>76.224587174831058</v>
       </c>
       <c r="Y67" s="31">
         <v>1800</v>
       </c>
       <c r="Z67" s="32">
-        <v>0.71278070677412497</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="31">
-        <v>1497.2222222222222</v>
+        <v>1894.7368421052631</v>
       </c>
       <c r="AB67" s="31">
-        <v>129.77916783243643</v>
+        <v>70.085211221181027</v>
       </c>
       <c r="AC67" s="31">
-        <v>1470</v>
+        <v>2800.4</v>
       </c>
       <c r="AD67" s="32">
-        <v>0</v>
+        <v>0.99935998929674452</v>
       </c>
       <c r="AE67" s="31">
         <v>2000</v>
@@ -11660,10 +11665,10 @@
         <v>55.844999999999999</v>
       </c>
       <c r="AG67" s="31">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AH67" s="31">
-        <v>0</v>
+        <v>97.451968917073373</v>
       </c>
       <c r="AI67" s="31">
         <v>0</v>
@@ -11726,10 +11731,10 @@
         <v>14</v>
       </c>
       <c r="O68" s="31">
-        <v>2062.5</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="P68" s="31">
-        <v>80.695601510021689</v>
+        <v>159.81622750887217</v>
       </c>
       <c r="Q68" s="31">
         <v>1950</v>
@@ -11750,40 +11755,40 @@
         <v>51.269700173506124</v>
       </c>
       <c r="W68" s="31">
-        <v>2062.5</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="X68" s="31">
-        <v>58.491875</v>
+        <v>83.699280458187232</v>
       </c>
       <c r="Y68" s="31">
         <v>1950</v>
       </c>
       <c r="Z68" s="32">
-        <v>0.73670717333517399</v>
+        <v>1</v>
       </c>
       <c r="AA68" s="31">
-        <v>1633.3333333333335</v>
+        <v>2052.6315789473683</v>
       </c>
       <c r="AB68" s="31">
-        <v>131.36891943285306</v>
+        <v>79.104677632282943</v>
       </c>
       <c r="AC68" s="31">
-        <v>1592.5</v>
+        <v>2825.35</v>
       </c>
       <c r="AD68" s="32">
-        <v>0</v>
+        <v>0.99935288733169059</v>
       </c>
       <c r="AE68" s="31">
-        <v>2062.5</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="AF68" s="31">
-        <v>58.491875</v>
+        <v>62.829999999999991</v>
       </c>
       <c r="AG68" s="31">
-        <v>0</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="AH68" s="31">
-        <v>0</v>
+        <v>98.629554378857733</v>
       </c>
       <c r="AI68" s="31">
         <v>0</v>
@@ -11846,10 +11851,10 @@
         <v>15</v>
       </c>
       <c r="O69" s="31">
-        <v>2250</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="P69" s="31">
-        <v>89.531773351804929</v>
+        <v>169.45045055864327</v>
       </c>
       <c r="Q69" s="31">
         <v>2100</v>
@@ -11870,40 +11875,40 @@
         <v>48.590377890729194</v>
       </c>
       <c r="W69" s="31">
-        <v>2250</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="X69" s="31">
-        <v>66.212500000000006</v>
+        <v>91.442426729775576</v>
       </c>
       <c r="Y69" s="31">
         <v>2100</v>
       </c>
       <c r="Z69" s="32">
-        <v>0.75494565805759628</v>
+        <v>1</v>
       </c>
       <c r="AA69" s="31">
-        <v>1769.4444444444446</v>
+        <v>2210.5263157894738</v>
       </c>
       <c r="AB69" s="31">
-        <v>132.85035472672507</v>
+        <v>87.799505677139393</v>
       </c>
       <c r="AC69" s="31">
-        <v>1715</v>
+        <v>2850.3</v>
       </c>
       <c r="AD69" s="32">
-        <v>0</v>
+        <v>0.99934765746677623</v>
       </c>
       <c r="AE69" s="31">
-        <v>2250</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="AF69" s="31">
-        <v>66.212500000000006</v>
+        <v>69.521666666666647</v>
       </c>
       <c r="AG69" s="31">
-        <v>0</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="AH69" s="31">
-        <v>0</v>
+        <v>99.739366398734731</v>
       </c>
       <c r="AI69" s="31">
         <v>0</v>
@@ -11966,10 +11971,10 @@
         <v>16</v>
       </c>
       <c r="O70" s="31">
-        <v>2437.5</v>
+        <v>2416.6666666666665</v>
       </c>
       <c r="P70" s="31">
-        <v>98.019095817346169</v>
+        <v>174.03478617014696</v>
       </c>
       <c r="Q70" s="31">
         <v>2250</v>
@@ -11990,40 +11995,40 @@
         <v>46.060654691386475</v>
       </c>
       <c r="W70" s="31">
-        <v>2437.5</v>
+        <v>2416.6666666666665</v>
       </c>
       <c r="X70" s="31">
-        <v>73.548124999999999</v>
+        <v>95.556501019631071</v>
       </c>
       <c r="Y70" s="31">
         <v>2250</v>
       </c>
       <c r="Z70" s="32">
-        <v>0.76717553557339802</v>
+        <v>1</v>
       </c>
       <c r="AA70" s="31">
-        <v>1905.5555555555557</v>
+        <v>2368.4210526315787</v>
       </c>
       <c r="AB70" s="31">
-        <v>134.23674422223974</v>
+        <v>96.075802520351615</v>
       </c>
       <c r="AC70" s="31">
-        <v>1837.5</v>
+        <v>2875.25</v>
       </c>
       <c r="AD70" s="32">
-        <v>0</v>
+        <v>0.99934242760186198</v>
       </c>
       <c r="AE70" s="31">
-        <v>2437.5</v>
+        <v>2416.6666666666665</v>
       </c>
       <c r="AF70" s="31">
-        <v>73.548124999999999</v>
+        <v>72.720833333333331</v>
       </c>
       <c r="AG70" s="31">
-        <v>0</v>
+        <v>2456.5144866937967</v>
       </c>
       <c r="AH70" s="31">
-        <v>0</v>
+        <v>100.51469949567991</v>
       </c>
       <c r="AI70" s="31">
         <v>0</v>
@@ -12086,10 +12091,10 @@
         <v>17</v>
       </c>
       <c r="O71" s="31">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="P71" s="31">
-        <v>98.575645544823828</v>
+        <v>178.61912178165065</v>
       </c>
       <c r="Q71" s="31">
         <v>2400</v>
@@ -12110,40 +12115,40 @@
         <v>43.630108867854346</v>
       </c>
       <c r="W71" s="31">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="X71" s="31">
-        <v>74.022500000000008</v>
+        <v>99.670575309486551</v>
       </c>
       <c r="Y71" s="31">
         <v>2400</v>
       </c>
       <c r="Z71" s="32">
-        <v>0.77543949992318006</v>
+        <v>1</v>
       </c>
       <c r="AA71" s="31">
-        <v>2000</v>
+        <v>2501</v>
       </c>
       <c r="AB71" s="31">
-        <v>135.14697253092618</v>
+        <v>102.72836035034992</v>
       </c>
       <c r="AC71" s="31">
-        <v>1960</v>
+        <v>2900.2</v>
       </c>
       <c r="AD71" s="32">
-        <v>0</v>
+        <v>0.99933719773694762</v>
       </c>
       <c r="AE71" s="31">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="AF71" s="31">
-        <v>74.022500000000008</v>
+        <v>75.92</v>
       </c>
       <c r="AG71" s="31">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH71" s="31">
-        <v>0</v>
+        <v>102.67943831514484</v>
       </c>
       <c r="AI71" s="31">
         <v>0</v>
@@ -12206,64 +12211,64 @@
         <v>18</v>
       </c>
       <c r="O72" s="31">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="P72" s="31">
-        <v>101.12191771982613</v>
+        <v>102.72836035034992</v>
       </c>
       <c r="Q72" s="31">
         <v>2550</v>
       </c>
       <c r="R72" s="31">
-        <v>272.5</v>
+        <v>272.50979999999993</v>
       </c>
       <c r="S72" s="31">
         <v>2550</v>
       </c>
       <c r="T72" s="32">
-        <v>9.2499999999999999E-2</v>
+        <v>0.125</v>
       </c>
       <c r="U72" s="31">
         <v>2550</v>
       </c>
       <c r="V72" s="31">
-        <v>41.304333337999893</v>
+        <v>41.312037696227115</v>
       </c>
       <c r="W72" s="31">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="X72" s="31">
-        <v>75.92</v>
+        <v>92.298796014454339</v>
       </c>
       <c r="Y72" s="31">
         <v>2550</v>
       </c>
       <c r="Z72" s="32">
-        <v>0.96563236512262063</v>
+        <v>0.99988724512574856</v>
       </c>
       <c r="AA72" s="31">
-        <v>2041.6666666666667</v>
+        <v>2526.3157894736842</v>
       </c>
       <c r="AB72" s="31">
-        <v>135.53133651536047</v>
+        <v>104.04756015357881</v>
       </c>
       <c r="AC72" s="31">
-        <v>2082.5</v>
+        <v>2925.15</v>
       </c>
       <c r="AD72" s="32">
-        <v>0</v>
+        <v>0.99931191593113256</v>
       </c>
       <c r="AE72" s="31">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="AF72" s="31">
-        <v>75.92</v>
+        <v>75.956850000000003</v>
       </c>
       <c r="AG72" s="31">
-        <v>0</v>
+        <v>2501</v>
       </c>
       <c r="AH72" s="31">
-        <v>0</v>
+        <v>102.72836035034992</v>
       </c>
       <c r="AI72" s="31">
         <v>0</v>
@@ -12326,16 +12331,16 @@
         <v>19</v>
       </c>
       <c r="O73" s="31">
-        <v>2625</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="P73" s="31">
-        <v>107.65039419627895</v>
+        <v>111.24171408856847</v>
       </c>
       <c r="Q73" s="31">
         <v>2700</v>
       </c>
       <c r="R73" s="31">
-        <v>324</v>
+        <v>324.01979999999992</v>
       </c>
       <c r="S73" s="31">
         <v>2700</v>
@@ -12350,40 +12355,40 @@
         <v>39.05012253615353</v>
       </c>
       <c r="W73" s="31">
-        <v>2625</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="X73" s="31">
-        <v>80.498750000000001</v>
+        <v>98.04534788933455</v>
       </c>
       <c r="Y73" s="31">
         <v>2700</v>
       </c>
       <c r="Z73" s="32">
-        <v>0.99959265157086219</v>
+        <v>0.99969226440047121</v>
       </c>
       <c r="AA73" s="31">
-        <v>2177.7777777777778</v>
+        <v>2684.2105263157896</v>
       </c>
       <c r="AB73" s="31">
-        <v>136.75710714637347</v>
+        <v>112.12399498210515</v>
       </c>
       <c r="AC73" s="31">
-        <v>2205</v>
+        <v>2950.1</v>
       </c>
       <c r="AD73" s="32">
-        <v>0</v>
+        <v>0.99928596987882812</v>
       </c>
       <c r="AE73" s="31">
-        <v>2625</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="AF73" s="31">
-        <v>80.498750000000001</v>
+        <v>81.987611000000001</v>
       </c>
       <c r="AG73" s="31">
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="AH73" s="31">
-        <v>0</v>
+        <v>111.24171408856847</v>
       </c>
       <c r="AI73" s="31">
         <v>0</v>
@@ -12445,16 +12450,16 @@
         <v>20</v>
       </c>
       <c r="O74" s="31">
-        <v>2812.5</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="P74" s="31">
-        <v>115.49677181277004</v>
+        <v>117.41786842869509</v>
       </c>
       <c r="Q74" s="31">
         <v>2850</v>
       </c>
       <c r="R74" s="31">
-        <v>395.75</v>
+        <v>395.75000000000017</v>
       </c>
       <c r="S74" s="31">
         <v>2850</v>
@@ -12469,40 +12474,40 @@
         <v>17.758163906557428</v>
       </c>
       <c r="W74" s="31">
-        <v>2812.5</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="X74" s="31">
-        <v>86.854687500000011</v>
+        <v>104.53866925667907</v>
       </c>
       <c r="Y74" s="31">
         <v>2850</v>
       </c>
       <c r="Z74" s="32">
-        <v>0.99979580149621583</v>
+        <v>0.99934772035092356</v>
       </c>
       <c r="AA74" s="31">
-        <v>2313.8888888888891</v>
+        <v>2842.1052631578946</v>
       </c>
       <c r="AB74" s="31">
-        <v>137.91469842713022</v>
+        <v>117.62670721045281</v>
       </c>
       <c r="AC74" s="31">
-        <v>2327.5</v>
+        <v>2975.05</v>
       </c>
       <c r="AD74" s="32">
-        <v>0</v>
+        <v>0.99926002382652357</v>
       </c>
       <c r="AE74" s="31">
-        <v>2812.5</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="AF74" s="31">
-        <v>86.854687500000011</v>
+        <v>87.204166666666652</v>
       </c>
       <c r="AG74" s="31">
-        <v>0</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="AH74" s="31">
-        <v>0</v>
+        <v>117.41786842869509</v>
       </c>
       <c r="AI74" s="31">
         <v>0</v>
@@ -12567,7 +12572,7 @@
         <v>3000</v>
       </c>
       <c r="P75" s="31">
-        <v>120</v>
+        <v>121.37235347486433</v>
       </c>
       <c r="Q75" s="31">
         <v>3000</v>
@@ -12591,25 +12596,25 @@
         <v>3000</v>
       </c>
       <c r="X75" s="31">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Y75" s="31">
         <v>3000</v>
       </c>
       <c r="Z75" s="32">
-        <v>0.99996128755088243</v>
+        <v>0.99923407777421913</v>
       </c>
       <c r="AA75" s="31">
-        <v>2450</v>
+        <v>3000</v>
       </c>
       <c r="AB75" s="31">
-        <v>139.01293413126569</v>
+        <v>121.37235347486433</v>
       </c>
       <c r="AC75" s="31">
-        <v>2450</v>
+        <v>3000</v>
       </c>
       <c r="AD75" s="32">
-        <v>0</v>
+        <v>0.99923407777421913</v>
       </c>
       <c r="AE75" s="31">
         <v>3000</v>
@@ -12618,10 +12623,10 @@
         <v>90</v>
       </c>
       <c r="AG75" s="31">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AH75" s="31">
-        <v>0</v>
+        <v>121.37235347486433</v>
       </c>
       <c r="AI75" s="31">
         <v>0</v>
